--- a/DataCleaning/album.xlsx
+++ b/DataCleaning/album.xlsx
@@ -1552,7 +1552,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
